--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B26" s="65">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B27" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B68" s="65">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B103" s="65">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B105" s="65">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
